--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1279,15 +1279,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.12890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="45.1640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1298,25 +1298,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.10546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.42578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="111.80859375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="109.2265625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1279,15 +1279,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="45.1640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1298,25 +1298,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.42578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="109.2265625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="111.80859375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,7 +847,7 @@
     <t>A reference to an [ElementDefinition](http://hl7.org/fhir/R4/elementdefinition.html) that provides the details for the item.</t>
   </si>
   <si>
-    <t>The ElementDefinition must be in a [StructureDefinition](structuredefinition.html#), and must have a fragment identifier that identifies the specific data element by its id (Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x].
+    <t>The ElementDefinition must be in a [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#), and must have a fragment identifier that identifies the specific data element by its id (Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x].
 There is no need for this element if the item pointed to by the linkId has a definition listed.</t>
   </si>
   <si>

--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -705,7 +705,7 @@
 ServicePractitionerDepartmentCompanyPerformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -733,7 +733,7 @@
     <t>QuestionnaireResponse.source</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1279,15 +1279,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.9375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="47.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="40.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1298,25 +1298,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.64453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.26171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="111.80859375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="95.85546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-questionnaireresponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -369,7 +369,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -524,7 +524,7 @@
     <t>QuestionnaireResponse.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|Procedure)
+    <t xml:space="preserve">Reference(Observation|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -550,7 +550,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -921,7 +921,7 @@
     <t>Code indicating the response provided for a question.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
   </si>
   <si>
     <t>.item</t>
@@ -2437,7 +2437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>161</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>168</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>177</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>188</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>198</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>207</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>217</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>227</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>235</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>256</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>261</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>267</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>272</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>280</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>290</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>294</v>
       </c>
@@ -5121,12 +5121,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM34">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
